--- a/app/backend/Test.xlsx
+++ b/app/backend/Test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m9/Documents/personal_programming/python/projects/gpt/app/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3128C3D6-F565-A647-8598-2D2D90B4EE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1160AC1A-2C45-B94B-BB05-A4502B839F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,9 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Hi</t>
+    <t>Hi Mario</t>
   </si>
 </sst>
 </file>
@@ -59,7 +59,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -460,115 +461,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="D5:H10"/>
+  <dimension ref="D5:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="5" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D5" t="s">
+    <row r="5" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>0</v>
-      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D5:F11"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/app/backend/Test.xlsx
+++ b/app/backend/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m9/Documents/personal_programming/python/projects/gpt/app/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1160AC1A-2C45-B94B-BB05-A4502B839F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE8B64D-A80F-CF42-8B2B-A0EF1505BFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+  <si>
+    <t>Upper line 
+buttom line</t>
+  </si>
+  <si>
+    <t>Upper line 
+ buttom line</t>
+  </si>
+  <si>
+    <t>Upper line
+buttom line</t>
+  </si>
   <si>
     <t>Hi Mario</t>
   </si>
@@ -59,8 +71,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -396,62 +411,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>100</v>
+    <row r="1" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>100</v>
+    <row r="5" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -461,50 +436,61 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="D5:F11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D5" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/app/backend/Test.xlsx
+++ b/app/backend/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m9/Documents/personal_programming/python/projects/gpt/app/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE8B64D-A80F-CF42-8B2B-A0EF1505BFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3DDDD1-25C0-204F-8F28-4EF86C058235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/app/backend/Test.xlsx
+++ b/app/backend/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m9/Documents/personal_programming/python/projects/gpt/app/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3DDDD1-25C0-204F-8F28-4EF86C058235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8112694-68D5-F040-A190-B65F701C6E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>Upper line 
 buttom line</t>
   </si>
   <si>
-    <t>Upper line 
- buttom line</t>
+    <t>a</t>
   </si>
   <si>
-    <t>Upper line
-buttom line</t>
+    <t>b</t>
   </si>
   <si>
-    <t>Hi Mario</t>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -413,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -422,6 +423,21 @@
     <row r="1" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -438,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -452,13 +468,24 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="5" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
@@ -472,7 +499,8 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
